--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Eng.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N2">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q2">
-        <v>488.3730459434083</v>
+        <v>860.3282655432</v>
       </c>
       <c r="R2">
-        <v>4395.357413490675</v>
+        <v>7742.954389888801</v>
       </c>
       <c r="S2">
-        <v>0.6604918103946938</v>
+        <v>0.7651943461005664</v>
       </c>
       <c r="T2">
-        <v>0.6604918103946938</v>
+        <v>0.7651943461005661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q3">
         <v>153.690250039125</v>
@@ -632,10 +632,10 @@
         <v>1383.212250352125</v>
       </c>
       <c r="S3">
-        <v>0.2078557617615075</v>
+        <v>0.1366953930154414</v>
       </c>
       <c r="T3">
-        <v>0.2078557617615075</v>
+        <v>0.1366953930154414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q4">
         <v>72.44346983786112</v>
@@ -694,10 +694,10 @@
         <v>651.9912285407499</v>
       </c>
       <c r="S4">
-        <v>0.09797493727781785</v>
+        <v>0.06443277031801152</v>
       </c>
       <c r="T4">
-        <v>0.09797493727781784</v>
+        <v>0.06443277031801151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N5">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O5">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P5">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q5">
-        <v>17.02038241567167</v>
+        <v>29.98346490288001</v>
       </c>
       <c r="R5">
-        <v>153.183441741045</v>
+        <v>269.85118412592</v>
       </c>
       <c r="S5">
-        <v>0.02301892638980668</v>
+        <v>0.02666793448394087</v>
       </c>
       <c r="T5">
-        <v>0.02301892638980668</v>
+        <v>0.02666793448394087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q6">
         <v>5.356288294275</v>
@@ -818,10 +818,10 @@
         <v>48.206594648475</v>
       </c>
       <c r="S6">
-        <v>0.007244020901373727</v>
+        <v>0.004763997282218867</v>
       </c>
       <c r="T6">
-        <v>0.007244020901373727</v>
+        <v>0.004763997282218865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P7">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q7">
         <v>2.524741220672222</v>
@@ -880,10 +880,10 @@
         <v>22.72267098605</v>
       </c>
       <c r="S7">
-        <v>0.00341454327480051</v>
+        <v>0.002245558799821181</v>
       </c>
       <c r="T7">
-        <v>0.00341454327480051</v>
+        <v>0.002245558799821181</v>
       </c>
     </row>
   </sheetData>
